--- a/myCCB/myInfo/Year to Year-Group Linkage.xlsx
+++ b/myCCB/myInfo/Year to Year-Group Linkage.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CCB\CCB Project\0.CCB\myCBD\myInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E552A1EC-18ED-4F4E-9BDA-CA3FCA92273D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="main" sheetId="10" r:id="rId1"/>
+    <sheet name="old" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>year</t>
   </si>
@@ -71,12 +82,48 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2018-2020</t>
+  </si>
+  <si>
+    <t>2015-2017</t>
+  </si>
+  <si>
+    <t>2012-2014</t>
+  </si>
+  <si>
+    <t>2009-2011</t>
+  </si>
+  <si>
+    <t>2006-2008</t>
+  </si>
+  <si>
+    <t>2003-2005</t>
+  </si>
+  <si>
+    <t>2000-2002</t>
+  </si>
+  <si>
+    <t>2016-2020</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>2001-2005</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -629,9 +676,9 @@
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="42"/>
-    <cellStyle name="Note 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Note 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -726,6 +773,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -761,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,11 +1017,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>1009</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,16 +1812,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/myCCB/myInfo/Year to Year-Group Linkage.xlsx
+++ b/myCCB/myInfo/Year to Year-Group Linkage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E552A1EC-18ED-4F4E-9BDA-CA3FCA92273D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7E869-7CDA-46B5-A653-5308252BC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="10" r:id="rId1"/>
     <sheet name="old" sheetId="9" r:id="rId2"/>
+    <sheet name="y2019" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -118,6 +119,39 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>2007-2011</t>
+  </si>
+  <si>
+    <t>2002-2006</t>
+  </si>
+  <si>
+    <t>2019-2021</t>
+  </si>
+  <si>
+    <t>2016-2018</t>
+  </si>
+  <si>
+    <t>2013-2015</t>
+  </si>
+  <si>
+    <t>2010-2012</t>
+  </si>
+  <si>
+    <t>2007-2009</t>
+  </si>
+  <si>
+    <t>2004-2006</t>
+  </si>
+  <si>
+    <t>2001-2003</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1055,11 +1089,8 @@
         <v>28</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>2001</v>
+      <c r="D2" s="2">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,17 +1098,15 @@
         <f>A2+1</f>
         <v>2001</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2003</v>
-      </c>
+      <c r="B3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,16 +1115,16 @@
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,16 +1133,16 @@
         <v>2003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1122,16 +1151,16 @@
         <v>2004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,16 +1169,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1158,16 +1187,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2008</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2004</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,16 +1205,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
         <v>2008</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2007</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,16 +1223,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
         <v>2008</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,16 +1241,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
         <v>2008</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,16 +1259,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1248,16 +1277,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1266,16 +1295,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,16 +1313,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,16 +1331,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1320,16 +1349,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1338,16 +1367,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1355,16 +1384,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1372,16 +1401,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1389,16 +1418,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,16 +1435,33 @@
         <v>2020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
         <v>2019</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1471,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88EA7D-0359-48D9-95C5-E8BD79C40DB0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1810,6 +2264,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myCCB/myInfo/Year to Year-Group Linkage.xlsx
+++ b/myCCB/myInfo/Year to Year-Group Linkage.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7E869-7CDA-46B5-A653-5308252BC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63210609-3950-465C-B284-AA4AFF2FEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="600" windowWidth="19470" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="10" r:id="rId1"/>
-    <sheet name="old" sheetId="9" r:id="rId2"/>
-    <sheet name="y2019" sheetId="11" r:id="rId3"/>
+    <sheet name="main" sheetId="12" r:id="rId1"/>
+    <sheet name="old" sheetId="10" r:id="rId2"/>
+    <sheet name="y2020" sheetId="9" r:id="rId3"/>
+    <sheet name="y2019" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t>2001-2003</t>
+  </si>
+  <si>
+    <t>2020-2022</t>
+  </si>
+  <si>
+    <t>2018-2022</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>2008-2012</t>
+  </si>
+  <si>
+    <t>2003-2007</t>
   </si>
 </sst>
 </file>
@@ -1051,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E94E420-0253-42DD-83D8-9388415148ED}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1086,11 +1102,11 @@
         <v>2000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="2">
-        <v>2000</v>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,15 +1114,12 @@
         <f>A2+1</f>
         <v>2001</v>
       </c>
-      <c r="B3" s="2">
-        <v>2001</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>2002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,16 +1128,14 @@
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2004</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,16 +1144,16 @@
         <v>2003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2004</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2005</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,16 +1162,16 @@
         <v>2004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2004</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2005</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,16 +1180,16 @@
         <v>2005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2004</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,16 +1198,16 @@
         <v>2006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2004</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2005</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1205,16 +1216,16 @@
         <v>2007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,16 +1234,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
         <v>2009</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>2008</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,16 +1252,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
         <v>2009</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>2008</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,16 +1270,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
         <v>2009</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,16 +1288,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1295,16 +1306,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,16 +1324,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1331,16 +1342,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1349,16 +1360,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,16 +1378,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,16 +1395,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,16 +1412,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,16 +1429,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1435,16 +1446,16 @@
         <v>2020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1452,16 +1463,33 @@
         <v>2021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
         <v>2020</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1470,11 +1498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,6 +1536,425 @@
         <v>28</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88EA7D-0359-48D9-95C5-E8BD79C40DB0}">
   <dimension ref="A1:E21"/>
   <sheetViews>

--- a/myCCB/myInfo/Year to Year-Group Linkage.xlsx
+++ b/myCCB/myInfo/Year to Year-Group Linkage.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63210609-3950-465C-B284-AA4AFF2FEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B91E49-6E2A-45B6-804D-487A4FD4F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="600" windowWidth="19470" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="12" r:id="rId1"/>
-    <sheet name="old" sheetId="10" r:id="rId2"/>
-    <sheet name="y2020" sheetId="9" r:id="rId3"/>
-    <sheet name="y2019" sheetId="11" r:id="rId4"/>
+    <sheet name="y2023" sheetId="13" r:id="rId2"/>
+    <sheet name="old" sheetId="10" r:id="rId3"/>
+    <sheet name="y2020" sheetId="9" r:id="rId4"/>
+    <sheet name="y2019" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
   <si>
     <t>year</t>
   </si>
@@ -168,6 +169,24 @@
   </si>
   <si>
     <t>2003-2007</t>
+  </si>
+  <si>
+    <t>2019-2023</t>
+  </si>
+  <si>
+    <t>2014-2018</t>
+  </si>
+  <si>
+    <t>2009-2013</t>
+  </si>
+  <si>
+    <t>2004-2008</t>
+  </si>
+  <si>
+    <t>2000-2003</t>
+  </si>
+  <si>
+    <t>2021-2023</t>
   </si>
 </sst>
 </file>
@@ -748,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,9 +807,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,26 +842,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,26 +877,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1070,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E94E420-0253-42DD-83D8-9388415148ED}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1498,6 +1483,458 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E580B7A3-1656-495A-B2D8-218C214E6DF8}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A18" si="0">A3+1</f>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1916,7 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -2324,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88EA7D-0359-48D9-95C5-E8BD79C40DB0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
